--- a/NewProbableCasesOverTimeByCounty/2021-02-11.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-11.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/10/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/11/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-10</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-11</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1313,6 +1316,7 @@
     <col min="101" max="101" width="12.0" customWidth="true"/>
     <col min="102" max="102" width="12.0" customWidth="true"/>
     <col min="103" max="103" width="12.0" customWidth="true"/>
+    <col min="104" max="104" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1635,10 +1639,13 @@
       <c r="CY3" t="s" s="10">
         <v>104</v>
       </c>
+      <c r="CZ3" t="s" s="10">
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1944,12 +1951,15 @@
         <v>4.0</v>
       </c>
       <c r="CY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2255,12 +2265,15 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2567,11 +2580,14 @@
       </c>
       <c r="CY6" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2878,11 +2894,14 @@
       </c>
       <c r="CY7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3189,11 +3208,14 @@
       </c>
       <c r="CY8" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3499,12 +3521,15 @@
         <v>0.0</v>
       </c>
       <c r="CY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3811,11 +3836,14 @@
       </c>
       <c r="CY10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4121,12 +4149,15 @@
         <v>1.0</v>
       </c>
       <c r="CY11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4432,12 +4463,15 @@
         <v>1.0</v>
       </c>
       <c r="CY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4744,11 +4778,14 @@
       </c>
       <c r="CY13" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5055,11 +5092,14 @@
       </c>
       <c r="CY14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5365,12 +5405,15 @@
         <v>0.0</v>
       </c>
       <c r="CY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5677,11 +5720,14 @@
       </c>
       <c r="CY16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5987,12 +6033,15 @@
         <v>0.0</v>
       </c>
       <c r="CY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -6299,11 +6348,14 @@
       </c>
       <c r="CY18" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6610,11 +6662,14 @@
       </c>
       <c r="CY19" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6920,12 +6975,15 @@
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -7232,11 +7290,14 @@
       </c>
       <c r="CY21" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7543,11 +7604,14 @@
       </c>
       <c r="CY22" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7854,11 +7918,14 @@
       </c>
       <c r="CY23" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -8165,11 +8232,14 @@
       </c>
       <c r="CY24" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -8476,11 +8546,14 @@
       </c>
       <c r="CY25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8786,12 +8859,15 @@
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -9098,11 +9174,14 @@
       </c>
       <c r="CY27" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -9408,12 +9487,15 @@
         <v>0.0</v>
       </c>
       <c r="CY28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9720,11 +9802,14 @@
       </c>
       <c r="CY29" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -10031,11 +10116,14 @@
       </c>
       <c r="CY30" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -10342,11 +10430,14 @@
       </c>
       <c r="CY31" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -10653,11 +10744,14 @@
       </c>
       <c r="CY32" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -10963,12 +11057,15 @@
         <v>1.0</v>
       </c>
       <c r="CY33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ33" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11274,12 +11371,15 @@
         <v>0.0</v>
       </c>
       <c r="CY34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -11586,11 +11686,14 @@
       </c>
       <c r="CY35" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -11896,12 +11999,15 @@
         <v>0.0</v>
       </c>
       <c r="CY36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -12208,11 +12314,14 @@
       </c>
       <c r="CY37" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -12519,11 +12628,14 @@
       </c>
       <c r="CY38" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12829,12 +12941,15 @@
         <v>0.0</v>
       </c>
       <c r="CY39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -13141,11 +13256,14 @@
       </c>
       <c r="CY40" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -13451,12 +13569,15 @@
         <v>1.0</v>
       </c>
       <c r="CY41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -13762,12 +13883,15 @@
         <v>0.0</v>
       </c>
       <c r="CY42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -14073,12 +14197,15 @@
         <v>0.0</v>
       </c>
       <c r="CY43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -14384,12 +14511,15 @@
         <v>0.0</v>
       </c>
       <c r="CY44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -14695,12 +14825,15 @@
         <v>6.0</v>
       </c>
       <c r="CY45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -15007,11 +15140,14 @@
       </c>
       <c r="CY46" t="n">
         <v>185.0</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -15317,12 +15453,15 @@
         <v>1.0</v>
       </c>
       <c r="CY47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -15629,11 +15768,14 @@
       </c>
       <c r="CY48" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -15940,11 +16082,14 @@
       </c>
       <c r="CY49" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -16251,11 +16396,14 @@
       </c>
       <c r="CY50" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -16562,11 +16710,14 @@
       </c>
       <c r="CY51" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -16873,11 +17024,14 @@
       </c>
       <c r="CY52" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -17184,11 +17338,14 @@
       </c>
       <c r="CY53" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -17494,12 +17651,15 @@
         <v>0.0</v>
       </c>
       <c r="CY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -17806,11 +17966,14 @@
       </c>
       <c r="CY55" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -18117,11 +18280,14 @@
       </c>
       <c r="CY56" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -18428,11 +18594,14 @@
       </c>
       <c r="CY57" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -18738,12 +18907,15 @@
         <v>0.0</v>
       </c>
       <c r="CY58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -19049,12 +19221,15 @@
         <v>0.0</v>
       </c>
       <c r="CY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -19361,11 +19536,14 @@
       </c>
       <c r="CY60" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -19671,12 +19849,15 @@
         <v>0.0</v>
       </c>
       <c r="CY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -19983,11 +20164,14 @@
       </c>
       <c r="CY62" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -20294,11 +20478,14 @@
       </c>
       <c r="CY63" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -20605,11 +20792,14 @@
       </c>
       <c r="CY64" t="n">
         <v>270.0</v>
+      </c>
+      <c r="CZ64" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -20915,12 +21105,15 @@
         <v>0.0</v>
       </c>
       <c r="CY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -21227,11 +21420,14 @@
       </c>
       <c r="CY66" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ66" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -21538,11 +21734,14 @@
       </c>
       <c r="CY67" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ67" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -21849,11 +22048,14 @@
       </c>
       <c r="CY68" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CZ68" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -22159,12 +22361,15 @@
         <v>-1.0</v>
       </c>
       <c r="CY69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ69" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -22471,11 +22676,14 @@
       </c>
       <c r="CY70" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CZ70" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -22782,11 +22990,14 @@
       </c>
       <c r="CY71" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CZ71" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -23092,12 +23303,15 @@
         <v>0.0</v>
       </c>
       <c r="CY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -23404,11 +23618,14 @@
       </c>
       <c r="CY73" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CZ73" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -23714,12 +23931,15 @@
         <v>0.0</v>
       </c>
       <c r="CY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -24026,11 +24246,14 @@
       </c>
       <c r="CY75" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CZ75" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -24337,11 +24560,14 @@
       </c>
       <c r="CY76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ76" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -24648,11 +24874,14 @@
       </c>
       <c r="CY77" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CZ77" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -24959,11 +25188,14 @@
       </c>
       <c r="CY78" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CZ78" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -25269,12 +25501,15 @@
         <v>0.0</v>
       </c>
       <c r="CY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -25581,11 +25816,14 @@
       </c>
       <c r="CY80" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CZ80" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -25891,12 +26129,15 @@
         <v>0.0</v>
       </c>
       <c r="CY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -26203,11 +26444,14 @@
       </c>
       <c r="CY82" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -26514,11 +26758,14 @@
       </c>
       <c r="CY83" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ83" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -26825,11 +27072,14 @@
       </c>
       <c r="CY84" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -27136,11 +27386,14 @@
       </c>
       <c r="CY85" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -27446,12 +27699,15 @@
         <v>0.0</v>
       </c>
       <c r="CY86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -27758,11 +28014,14 @@
       </c>
       <c r="CY87" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CZ87" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -28068,12 +28327,15 @@
         <v>3.0</v>
       </c>
       <c r="CY88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -28380,11 +28642,14 @@
       </c>
       <c r="CY89" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -28691,11 +28956,14 @@
       </c>
       <c r="CY90" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CZ90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -29001,12 +29269,15 @@
         <v>11.0</v>
       </c>
       <c r="CY91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -29313,11 +29584,14 @@
       </c>
       <c r="CY92" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -29624,11 +29898,14 @@
       </c>
       <c r="CY93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -29934,12 +30211,15 @@
         <v>0.0</v>
       </c>
       <c r="CY94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -30245,12 +30525,15 @@
         <v>65.0</v>
       </c>
       <c r="CY95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ95" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -30557,11 +30840,14 @@
       </c>
       <c r="CY96" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -30868,11 +31154,14 @@
       </c>
       <c r="CY97" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -31178,12 +31467,15 @@
         <v>0.0</v>
       </c>
       <c r="CY98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -31490,11 +31782,14 @@
       </c>
       <c r="CY99" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ99" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -31800,12 +32095,15 @@
         <v>0.0</v>
       </c>
       <c r="CY100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -32112,11 +32410,14 @@
       </c>
       <c r="CY101" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ101" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -32422,12 +32723,15 @@
         <v>0.0</v>
       </c>
       <c r="CY102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -32734,11 +33038,14 @@
       </c>
       <c r="CY103" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CZ103" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -33044,12 +33351,15 @@
         <v>0.0</v>
       </c>
       <c r="CY104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -33356,11 +33666,14 @@
       </c>
       <c r="CY105" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CZ105" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -33666,12 +33979,15 @@
         <v>0.0</v>
       </c>
       <c r="CY106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ106" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -33978,11 +34294,14 @@
       </c>
       <c r="CY107" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -34289,11 +34608,14 @@
       </c>
       <c r="CY108" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -34599,12 +34921,15 @@
         <v>-1.0</v>
       </c>
       <c r="CY109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -34910,12 +35235,15 @@
         <v>13.0</v>
       </c>
       <c r="CY110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ110" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -35222,11 +35550,14 @@
       </c>
       <c r="CY111" t="n">
         <v>306.0</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -35533,11 +35864,14 @@
       </c>
       <c r="CY112" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -35843,12 +36177,15 @@
         <v>2.0</v>
       </c>
       <c r="CY113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ113" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -36155,11 +36492,14 @@
       </c>
       <c r="CY114" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -36466,11 +36806,14 @@
       </c>
       <c r="CY115" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -36776,12 +37119,15 @@
         <v>1.0</v>
       </c>
       <c r="CY116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ116" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -37088,11 +37434,14 @@
       </c>
       <c r="CY117" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -37399,11 +37748,14 @@
       </c>
       <c r="CY118" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -37709,12 +38061,15 @@
         <v>0.0</v>
       </c>
       <c r="CY119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -38021,11 +38376,14 @@
       </c>
       <c r="CY120" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ120" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -38331,12 +38689,15 @@
         <v>1.0</v>
       </c>
       <c r="CY121" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ121" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -38642,12 +39003,15 @@
         <v>0.0</v>
       </c>
       <c r="CY122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -38954,11 +39318,14 @@
       </c>
       <c r="CY123" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ123" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -39265,11 +39632,14 @@
       </c>
       <c r="CY124" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CZ124" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -39576,11 +39946,14 @@
       </c>
       <c r="CY125" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ125" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -39886,12 +40259,15 @@
         <v>0.0</v>
       </c>
       <c r="CY126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -40198,11 +40574,14 @@
       </c>
       <c r="CY127" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CZ127" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -40508,12 +40887,15 @@
         <v>-2.0</v>
       </c>
       <c r="CY128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ128" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -40820,11 +41202,14 @@
       </c>
       <c r="CY129" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CZ129" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -41131,11 +41516,14 @@
       </c>
       <c r="CY130" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ130" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -41442,11 +41830,14 @@
       </c>
       <c r="CY131" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ131" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -41753,11 +42144,14 @@
       </c>
       <c r="CY132" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CZ132" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -42064,11 +42458,14 @@
       </c>
       <c r="CY133" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CZ133" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -42374,12 +42771,15 @@
         <v>0.0</v>
       </c>
       <c r="CY134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -42685,12 +43085,15 @@
         <v>1.0</v>
       </c>
       <c r="CY135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -42997,11 +43400,14 @@
       </c>
       <c r="CY136" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CZ136" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -43308,11 +43714,14 @@
       </c>
       <c r="CY137" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ137" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -43618,12 +44027,15 @@
         <v>0.0</v>
       </c>
       <c r="CY138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -43929,12 +44341,15 @@
         <v>0.0</v>
       </c>
       <c r="CY139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -44240,12 +44655,15 @@
         <v>9.0</v>
       </c>
       <c r="CY140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ140" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -44552,11 +44970,14 @@
       </c>
       <c r="CY141" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ141" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -44863,11 +45284,14 @@
       </c>
       <c r="CY142" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CZ142" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -45174,11 +45598,14 @@
       </c>
       <c r="CY143" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ143" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -45485,11 +45912,14 @@
       </c>
       <c r="CY144" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ144" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -45795,12 +46225,15 @@
         <v>0.0</v>
       </c>
       <c r="CY145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -46107,11 +46540,14 @@
       </c>
       <c r="CY146" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ146" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -46418,11 +46854,14 @@
       </c>
       <c r="CY147" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CZ147" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -46728,12 +47167,15 @@
         <v>0.0</v>
       </c>
       <c r="CY148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ148" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -47040,11 +47482,14 @@
       </c>
       <c r="CY149" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CZ149" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -47351,11 +47796,14 @@
       </c>
       <c r="CY150" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ150" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -47662,11 +48110,14 @@
       </c>
       <c r="CY151" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ151" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -47972,12 +48423,15 @@
         <v>5.0</v>
       </c>
       <c r="CY152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -48284,11 +48738,14 @@
       </c>
       <c r="CY153" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ153" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -48594,12 +49051,15 @@
         <v>0.0</v>
       </c>
       <c r="CY154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -48905,12 +49365,15 @@
         <v>0.0</v>
       </c>
       <c r="CY155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -49216,12 +49679,15 @@
         <v>0.0</v>
       </c>
       <c r="CY156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -49528,11 +49994,14 @@
       </c>
       <c r="CY157" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ157" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -49838,12 +50307,15 @@
         <v>0.0</v>
       </c>
       <c r="CY158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -50149,12 +50621,15 @@
         <v>0.0</v>
       </c>
       <c r="CY159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -50460,12 +50935,15 @@
         <v>0.0</v>
       </c>
       <c r="CY160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ160" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -50772,11 +51250,14 @@
       </c>
       <c r="CY161" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ161" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -51083,11 +51564,14 @@
       </c>
       <c r="CY162" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ162" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -51394,11 +51878,14 @@
       </c>
       <c r="CY163" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ163" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -51705,11 +52192,14 @@
       </c>
       <c r="CY164" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ164" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -52015,12 +52505,15 @@
         <v>0.0</v>
       </c>
       <c r="CY165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -52326,12 +52819,15 @@
         <v>0.0</v>
       </c>
       <c r="CY166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ166" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -52638,11 +53134,14 @@
       </c>
       <c r="CY167" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CZ167" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -52948,12 +53447,15 @@
         <v>0.0</v>
       </c>
       <c r="CY168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -53260,11 +53762,14 @@
       </c>
       <c r="CY169" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CZ169" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -53570,12 +54075,15 @@
         <v>1.0</v>
       </c>
       <c r="CY170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -53881,12 +54389,15 @@
         <v>0.0</v>
       </c>
       <c r="CY171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -54193,11 +54704,14 @@
       </c>
       <c r="CY172" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ172" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -54504,11 +55018,14 @@
       </c>
       <c r="CY173" t="n">
         <v>86.0</v>
+      </c>
+      <c r="CZ173" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -54815,11 +55332,14 @@
       </c>
       <c r="CY174" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CZ174" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -55126,11 +55646,14 @@
       </c>
       <c r="CY175" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ175" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -55436,12 +55959,15 @@
         <v>0.0</v>
       </c>
       <c r="CY176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -55748,11 +56274,14 @@
       </c>
       <c r="CY177" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ177" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -56059,11 +56588,14 @@
       </c>
       <c r="CY178" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CZ178" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -56370,11 +56902,14 @@
       </c>
       <c r="CY179" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -56680,12 +57215,15 @@
         <v>0.0</v>
       </c>
       <c r="CY180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -56992,11 +57530,14 @@
       </c>
       <c r="CY181" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CZ181" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -57303,11 +57844,14 @@
       </c>
       <c r="CY182" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ182" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -57614,11 +58158,14 @@
       </c>
       <c r="CY183" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ183" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -57925,11 +58472,14 @@
       </c>
       <c r="CY184" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CZ184" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -58236,11 +58786,14 @@
       </c>
       <c r="CY185" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ185" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -58547,11 +59100,14 @@
       </c>
       <c r="CY186" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ186" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -58858,11 +59414,14 @@
       </c>
       <c r="CY187" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CZ187" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -59169,11 +59728,14 @@
       </c>
       <c r="CY188" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ188" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -59479,12 +60041,15 @@
         <v>1.0</v>
       </c>
       <c r="CY189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -59791,11 +60356,14 @@
       </c>
       <c r="CY190" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CZ190" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -60101,12 +60669,15 @@
         <v>0.0</v>
       </c>
       <c r="CY191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -60413,11 +60984,14 @@
       </c>
       <c r="CY192" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ192" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -60723,12 +61297,15 @@
         <v>1.0</v>
       </c>
       <c r="CY193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ193" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -61034,12 +61611,15 @@
         <v>0.0</v>
       </c>
       <c r="CY194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -61346,11 +61926,14 @@
       </c>
       <c r="CY195" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ195" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -61656,12 +62239,15 @@
         <v>0.0</v>
       </c>
       <c r="CY196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -61968,11 +62554,14 @@
       </c>
       <c r="CY197" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ197" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -62279,11 +62868,14 @@
       </c>
       <c r="CY198" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ198" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -62589,12 +63181,15 @@
         <v>-1.0</v>
       </c>
       <c r="CY199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ199" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -62900,12 +63495,15 @@
         <v>0.0</v>
       </c>
       <c r="CY200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -63212,11 +63810,14 @@
       </c>
       <c r="CY201" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CZ201" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -63523,11 +64124,14 @@
       </c>
       <c r="CY202" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CZ202" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -63834,11 +64438,14 @@
       </c>
       <c r="CY203" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ203" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -64145,11 +64752,14 @@
       </c>
       <c r="CY204" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CZ204" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -64456,11 +65066,14 @@
       </c>
       <c r="CY205" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ205" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -64767,11 +65380,14 @@
       </c>
       <c r="CY206" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ206" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -65077,12 +65693,15 @@
         <v>2.0</v>
       </c>
       <c r="CY207" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CZ207" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -65388,12 +66007,15 @@
         <v>0.0</v>
       </c>
       <c r="CY208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -65699,12 +66321,15 @@
         <v>1.0</v>
       </c>
       <c r="CY209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -66010,12 +66635,15 @@
         <v>1.0</v>
       </c>
       <c r="CY210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ210" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -66321,12 +66949,15 @@
         <v>0.0</v>
       </c>
       <c r="CY211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -66633,11 +67264,14 @@
       </c>
       <c r="CY212" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ212" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -66944,11 +67578,14 @@
       </c>
       <c r="CY213" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ213" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -67255,11 +67892,14 @@
       </c>
       <c r="CY214" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CZ214" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -67565,12 +68205,15 @@
         <v>49.0</v>
       </c>
       <c r="CY215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ215" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -67877,11 +68520,14 @@
       </c>
       <c r="CY216" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ216" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -68188,11 +68834,14 @@
       </c>
       <c r="CY217" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CZ217" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -68499,11 +69148,14 @@
       </c>
       <c r="CY218" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ218" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -68809,12 +69461,15 @@
         <v>0.0</v>
       </c>
       <c r="CY219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -69120,12 +69775,15 @@
         <v>0.0</v>
       </c>
       <c r="CY220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -69432,11 +70090,14 @@
       </c>
       <c r="CY221" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ221" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -69743,11 +70404,14 @@
       </c>
       <c r="CY222" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ222" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -70054,11 +70718,14 @@
       </c>
       <c r="CY223" t="n">
         <v>81.0</v>
+      </c>
+      <c r="CZ223" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -70365,11 +71032,14 @@
       </c>
       <c r="CY224" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CZ224" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -70675,12 +71345,15 @@
         <v>0.0</v>
       </c>
       <c r="CY225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -70986,12 +71659,15 @@
         <v>0.0</v>
       </c>
       <c r="CY226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -71298,11 +71974,14 @@
       </c>
       <c r="CY227" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ227" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -71609,11 +72288,14 @@
       </c>
       <c r="CY228" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ228" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -71920,11 +72602,14 @@
       </c>
       <c r="CY229" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CZ229" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -72230,12 +72915,15 @@
         <v>0.0</v>
       </c>
       <c r="CY230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -72541,12 +73229,15 @@
         <v>2.0</v>
       </c>
       <c r="CY231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ231" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -72853,11 +73544,14 @@
       </c>
       <c r="CY232" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ232" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -73164,11 +73858,14 @@
       </c>
       <c r="CY233" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CZ233" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -73475,11 +74172,14 @@
       </c>
       <c r="CY234" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ234" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -73786,11 +74486,14 @@
       </c>
       <c r="CY235" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ235" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -74096,12 +74799,15 @@
         <v>0.0</v>
       </c>
       <c r="CY236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -74407,12 +75113,15 @@
         <v>4.0</v>
       </c>
       <c r="CY237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ237" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -74718,12 +75427,15 @@
         <v>0.0</v>
       </c>
       <c r="CY238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -75030,11 +75742,14 @@
       </c>
       <c r="CY239" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CZ239" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -75341,11 +76056,14 @@
       </c>
       <c r="CY240" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ240" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -75652,11 +76370,14 @@
       </c>
       <c r="CY241" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ241" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -75963,11 +76684,14 @@
       </c>
       <c r="CY242" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CZ242" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -76273,12 +76997,15 @@
         <v>0.0</v>
       </c>
       <c r="CY243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -76585,11 +77312,14 @@
       </c>
       <c r="CY244" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ244" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -76895,12 +77625,15 @@
         <v>1.0</v>
       </c>
       <c r="CY245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -77206,12 +77939,15 @@
         <v>0.0</v>
       </c>
       <c r="CY246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -77517,12 +78253,15 @@
         <v>0.0</v>
       </c>
       <c r="CY247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -77829,11 +78568,14 @@
       </c>
       <c r="CY248" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CZ248" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -78140,11 +78882,14 @@
       </c>
       <c r="CY249" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CZ249" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -78451,11 +79196,14 @@
       </c>
       <c r="CY250" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CZ250" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -78762,11 +79510,14 @@
       </c>
       <c r="CY251" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ251" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -79072,12 +79823,15 @@
         <v>7.0</v>
       </c>
       <c r="CY252" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CZ252" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -79383,12 +80137,15 @@
         <v>33.0</v>
       </c>
       <c r="CY253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ253" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -79694,12 +80451,15 @@
         <v>0.0</v>
       </c>
       <c r="CY254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -80006,11 +80766,14 @@
       </c>
       <c r="CY255" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ255" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -80317,11 +81080,14 @@
       </c>
       <c r="CY256" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CZ256" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -80628,11 +81394,14 @@
       </c>
       <c r="CY257" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CZ257" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -80736,10 +81505,11 @@
       <c r="CW258"/>
       <c r="CX258"/>
       <c r="CY258"/>
+      <c r="CZ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -80843,6 +81613,7 @@
       <c r="CW259"/>
       <c r="CX259"/>
       <c r="CY259"/>
+      <c r="CZ259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
